--- a/요구분석.xlsx
+++ b/요구분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Desktop\VibeSync\요구분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BBA54-3977-4B2B-95B2-A3CD39C9D2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98661CAC-EB18-4EAD-93A0-E793192720FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{244DE782-F2B3-450D-B32D-AB5282B33916}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>UI 상세 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,15 +223,6 @@
 - 부가 정보 영역: 진행 중/예정 SyncPlay 목록, 알림 확인 영역(아이콘 클릭 시 확장)
 - 검색 바: 텍스트 입력 필드, 검색 버튼/아이콘
 - 사이드바: 사용자 프로필 요약(클릭 시 마이 홈 이동), 홈(탐색 페이지) 아이콘, SyncPlay 아이콘, 알림 아이콘, 설정 아이콘, 글쓰기 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 로그인 후 최초 진입 화면은 탐색 페이지이다.
-- 추천 포스트 / 팔로우 계정의 최신포스트가 탭 형식으로 구분되어 제공된다. 
-- 진행 중이거나 예정된 SyncPlay 정보를 확인하고 참여할 수 있다.
-- 알림 아이콘을 통해 댓글, 채팅, 팔로우, SyncPlay 시작/예약 등 관련 소식을 통합 제공한다. 아이콘 클릭 시 알림 목록을 확장/축소하여 볼 수 있다. (실시간 업데이트 반영 - 예: 빨간 점 표시)
-- 검색 바를 통해 서비스 내 콘텐츠(게시글 내용, 사용자 닉네임 등)를 통합 검색할 수 있다. (검색 범위 명확화 필요, 검색 결과는 별도 페이지 또는 팝업으로 표시)
-- 사이드바를 통해 주요 기능(마이 홈, SyncPlay, 알림, 설정, 글쓰기)으로 빠르게 이동할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,6 +467,48 @@
   <si>
     <t>- 서비스 이용약관과 개인정보 처리방침 내용을 사용자가 언제든지 확인할 수 있도록 별도의 페이지를 제공해야 한다.
 - 회원가입 시 동의한 약관의 버전을 관리하고, 중요한 변경사항 발생 시 사용자에게 고지해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로그인 후 최초 진입 화면은 탐색 페이지이다.
+- 추천 포스트 / 팔로우 계정의 최신포스트가 탭 형식으로 구분되어 제공된다. 
+- 진행 중이거나 예정된 SyncPlay 정보를 확인하고 참여할 수 있다. 팔로우한 계정/관심항목과 관련된  SyncPlay가 출력된다.
+- 알림 아이콘을 통해 댓글, 채팅, 팔로우, SyncPlay 시작/예약 등 관련 소식을 통합 제공한다. 아이콘 클릭 시 알림 목록을 확장/축소하여 볼 수 있다. (실시간 업데이트 반영 - 예: 빨간 점 표시)
+- 검색 바를 통해 서비스 내 콘텐츠(게시글 내용, 사용자 닉네임 등)를 통합 검색할 수 있다. 
+- 사이드바를 통해 주요 기능(마이 홈, SyncPlay, 알림, 설정, 글쓰기)으로 빠르게 이동할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 게시물 기반 관심사 필터링 추천 (Popularity-Based Recommendation with Interest Filtering)
+ 사용자에게 관련성 높고 흥미를 유발할 가능성이 있는 게시물을 추천하되, 최근 인기 있는 콘텐츠 중 사용자의 관심사와 일치하는 것을 우선적으로 보여준다.
+핵심 로직:
+1) 사용자 관심사 파악 (User Interest Identification):
+방법: 
+- 사용자의 최근 활동 기록(예: 최근 7일 또는 30일간 '좋아요' 누르거나 댓글 단 게시물, 검색어, 조회한 게시물)을 분석.
+- 관심 카테고리 추출: 해당 활동이 발생한 게시물들의 카테고리를 식별한다.   
+- 관심도 계산: 카테고리별 활동 빈도를 계산하여 관심도를 추정한다. (예: '영화' 카테고리 게시물에 5회 상호작용, '음악' 카테고리에 3회 상호작용)
+- 상위 관심사 선정: 계산된 관심도를 바탕으로 사용자의 상위 M개 관심 카테고리의 순위를 매긴다. 
+- 콜드 스타트 (Cold Start) 처리: 활동 기록이 부족한 신규 사용자의 경우, 관심사 필터링 단계를 건너뛰거나, 전체 사용자에게 인기 있는 기본 카테고리 몇 개를 관심사로 간주한다.
+2) 게시물 실시간 인기 점수 계산 (Real-time Popularity Scoring):
+대상: 비교적 최근에 작성된 게시물 (예: 최근 48시간 이내 작성).
+방법: 각 게시물에 대해 특정 기간(예: 최근 24시간 또는 48시간) 동안 발생한 상호작용 수를 기반으로 인기 점수를 계산한다.
+- 인기 점수 공식 (예시): 인기 점수 = (최근 N시간 내 좋아요 수 * 1) + (최근 N시간 내 댓글 수 * 2)
+효율성 고려사항: 이 점수는 주기적인 백그라운드 작업으로 미리 계산해두거나, 요청 시점에 계산하되 쿼리 성능 최적화가 필요하다. (초기에는 요청 시 계산도 가능)
+3) 후보 게시물 선정 (Candidate Selection):
+대상: 실시간 인기 점수가 계산된 최근 게시물들.
+방법: 계산된 '인기 점수'를 기준으로 상위 N개의 게시물을 선정한다. (N은 최종 추천 개수보다 충분히 큰 수, 예: 100개)
+4) 관심사 기반 필터링 (Interest-Based Filtering):
+방법:
+콜드 스타트가 아닌 경우: 3단계에서 선정된 상위 N개 인기 게시물 중에서, 1단계에서 파악된 사용자의 '상위 관심 카테고리 M개'에 속하는 게시물만 남긴다.
+콜드 스타트인 경우: 이 필터링 단계를 건너뛰고 상위 N개 인기 게시물 전체를 대상으로 다음 단계를 진행햔다.
+5) 최종 추천 목록 생성 및 정렬 (Final Recommendation &amp; Ranking):
+방법: 4단계에서 필터링된 게시물 목록(또는 콜드 스타트의 경우 필터링 전 목록)에서 최종적으로 사용자에게 보여줄 K개의 게시물을 선택합니다. (예: K=20개)
+중복/기피 처리 (선택 사항): 사용자가 이미 읽었거나 상호작용한 게시물, 또는 차단한 사용자의 게시물은 제외하는 로직을 추가할 수 있다.
+정렬: 최종 K개의 게시물은 '실시간 인기 점수'가 높은 순서대로 정렬하여 사용자에게 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 포스트 알고리즘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,10 +671,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
@@ -659,22 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1">
@@ -692,40 +710,37 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,22 +1147,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F955D42-A4A7-4D48-9E4C-95138FB31330}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="26" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="77.625" style="4" customWidth="1"/>
     <col min="6" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
+      <c r="A1" s="20"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,14 +1171,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="176.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1174,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="176.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1185,7 +1200,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1196,7 +1211,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="15" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -1207,7 +1222,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1218,282 +1233,290 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="e" vm="1">
+      <c r="B9" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" s="16" customFormat="1" ht="165" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="7" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>42</v>
+      <c r="A18" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="309.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
-        <v>43</v>
+      <c r="A21" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>45</v>
+      <c r="A27" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
